--- a/BSAN3210 Practice Datasheet.xlsx
+++ b/BSAN3210 Practice Datasheet.xlsx
@@ -11,18 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>date</t>
+  </si>
   <si>
     <t>DriversKilled</t>
   </si>
   <si>
-    <t>drivers</t>
+    <t>driver_deaths</t>
   </si>
   <si>
-    <t>front</t>
+    <t>passenger_deaths</t>
   </si>
   <si>
-    <t>rear</t>
+    <t>rear_deaths</t>
   </si>
   <si>
     <t>law</t>
@@ -32,9 +35,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mmm yyyy"/>
-    <numFmt numFmtId="165" formatCode="mmmm yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -44,13 +46,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -77,24 +79,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -312,20 +315,23 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -344,7 +350,7 @@
       <c r="E2" s="5">
         <v>665.0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -361,15 +367,15 @@
       <c r="D3" s="5">
         <v>740.0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>1074.0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>61.0</v>
       </c>
       <c r="B4" s="5">
@@ -384,12 +390,12 @@
       <c r="E4" s="5">
         <v>726.0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>92.0</v>
       </c>
       <c r="B5" s="5">
@@ -404,7 +410,7 @@
       <c r="E5" s="5">
         <v>888.0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -424,7 +430,7 @@
       <c r="E6" s="5">
         <v>1152.0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -444,12 +450,12 @@
       <c r="E7" s="5">
         <v>1240.0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>183.0</v>
       </c>
       <c r="B8" s="5">
@@ -464,12 +470,12 @@
       <c r="E8" s="5">
         <v>475.0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>214.0</v>
       </c>
       <c r="B9" s="5">
@@ -484,7 +490,7 @@
       <c r="E9" s="5">
         <v>870.0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -504,7 +510,7 @@
       <c r="E10" s="5">
         <v>1691.0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -524,12 +530,12 @@
       <c r="E11" s="5">
         <v>258.0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>306.0</v>
       </c>
       <c r="B12" s="5">
@@ -544,12 +550,12 @@
       <c r="E12" s="5">
         <v>904.0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>336.0</v>
       </c>
       <c r="B13" s="5">
@@ -564,7 +570,7 @@
       <c r="E13" s="5">
         <v>1595.0</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -584,7 +590,7 @@
       <c r="E14" s="5">
         <v>707.0</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -604,7 +610,7 @@
       <c r="E15" s="5">
         <v>1892.0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -624,12 +630,12 @@
       <c r="E16" s="5">
         <v>1938.0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>457.0</v>
       </c>
       <c r="B17" s="5">
@@ -644,12 +650,12 @@
       <c r="E17" s="5">
         <v>1973.0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>487.0</v>
       </c>
       <c r="B18" s="5">
@@ -664,7 +670,7 @@
       <c r="E18" s="5">
         <v>1750.0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -684,7 +690,7 @@
       <c r="E19" s="5">
         <v>1483.0</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -704,12 +710,12 @@
       <c r="E20" s="5">
         <v>1599.0</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>579.0</v>
       </c>
       <c r="B21" s="5">
@@ -724,7 +730,7 @@
       <c r="E21" s="5">
         <v>340.0</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -744,7 +750,7 @@
       <c r="E22" s="5">
         <v>1793.0</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -764,12 +770,12 @@
       <c r="E23" s="5">
         <v>1690.0</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>671.0</v>
       </c>
       <c r="B24" s="5">
@@ -784,12 +790,12 @@
       <c r="E24" s="5">
         <v>236.0</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>701.0</v>
       </c>
       <c r="B25" s="5">
@@ -804,7 +810,7 @@
       <c r="E25" s="5">
         <v>818.0</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -824,7 +830,7 @@
       <c r="E26" s="5">
         <v>1752.0</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -844,12 +850,12 @@
       <c r="E27" s="5">
         <v>367.0</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>791.0</v>
       </c>
       <c r="B28" s="5">
@@ -864,7 +870,7 @@
       <c r="E28" s="5">
         <v>203.0</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -884,7 +890,7 @@
       <c r="E29" s="5">
         <v>232.0</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -904,12 +910,12 @@
       <c r="E30" s="5">
         <v>217.0</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>883.0</v>
       </c>
       <c r="B31" s="5">
@@ -924,12 +930,12 @@
       <c r="E31" s="5">
         <v>922.0</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>913.0</v>
       </c>
       <c r="B32" s="5">
@@ -944,7 +950,7 @@
       <c r="E32" s="5">
         <v>846.0</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -964,7 +970,7 @@
       <c r="E33" s="5">
         <v>725.0</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -984,12 +990,12 @@
       <c r="E34" s="5">
         <v>1303.0</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>1005.0</v>
       </c>
       <c r="B35" s="5">
@@ -1004,12 +1010,12 @@
       <c r="E35" s="5">
         <v>351.0</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>1036.0</v>
       </c>
       <c r="B36" s="5">
@@ -1024,7 +1030,7 @@
       <c r="E36" s="5">
         <v>167.0</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -1044,7 +1050,7 @@
       <c r="E37" s="5">
         <v>1954.0</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -1064,12 +1070,12 @@
       <c r="E38" s="5">
         <v>1176.0</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6">
+      <c r="A39" s="3">
         <v>1128.0</v>
       </c>
       <c r="B39" s="5">
@@ -1084,12 +1090,12 @@
       <c r="E39" s="5">
         <v>1400.0</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>1156.0</v>
       </c>
       <c r="B40" s="5">
@@ -1104,7 +1110,7 @@
       <c r="E40" s="5">
         <v>919.0</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -1124,7 +1130,7 @@
       <c r="E41" s="5">
         <v>912.0</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -1144,7 +1150,7 @@
       <c r="E42" s="5">
         <v>1392.0</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -1164,7 +1170,7 @@
       <c r="E43" s="5">
         <v>798.0</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="6">
         <v>1.0</v>
       </c>
     </row>
